--- a/lab8/sprawozdanie/newCachedThreadPool.xlsx
+++ b/lab8/sprawozdanie/newCachedThreadPool.xlsx
@@ -9,8 +9,19 @@
   <sheets>
     <sheet name="newCachedThreadPool" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>cachedThreadPool</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -548,6 +559,321 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Cached thread pool</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32686219739292371"/>
+          <c:y val="4.8525569242254575E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12148711857945131"/>
+          <c:y val="0.20558999274026918"/>
+          <c:w val="0.79771679203507384"/>
+          <c:h val="0.62174597996079162"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>newCachedThreadPool!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cachedThreadPool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>newCachedThreadPool!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>newCachedThreadPool!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="145022464"/>
+        <c:axId val="173460288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="145022464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba iteracji</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173460288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="173460288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>czas (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="145022464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.70505121042830543"/>
+          <c:y val="4.9849074016923699E-2"/>
+          <c:w val="0.25770484171322161"/>
+          <c:h val="0.13499748701625064"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="newSingleThreadExecutor"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>singleThreadExecutor</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>100</v>
+          </cell>
+          <cell r="B2">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>500</v>
+          </cell>
+          <cell r="B3">
+            <v>87</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>1000</v>
+          </cell>
+          <cell r="B4">
+            <v>147</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>5000</v>
+          </cell>
+          <cell r="B5">
+            <v>676</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -837,45 +1163,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>100</v>
-      </c>
-      <c r="B1">
-        <v>21</v>
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>5000</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>